--- a/lab1/datasets/data_dictionary.xlsx
+++ b/lab1/datasets/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Source</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>Contains information about the three countries of interest: Guinea, Liberia, Sierra Leone</t>
+  </si>
+  <si>
+    <t>Contains respondents' answers to survey questions.</t>
+  </si>
+  <si>
+    <t>Contains information about Ebola Treatment Centers.</t>
+  </si>
+  <si>
+    <t>Contains information about organizations that partner with Ebola Treatment Centers.</t>
   </si>
 </sst>
 </file>
@@ -589,14 +601,14 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -623,7 +635,9 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -673,7 +687,9 @@
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
@@ -773,7 +789,9 @@
       <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
@@ -853,7 +871,9 @@
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>

--- a/lab1/datasets/data_dictionary.xlsx
+++ b/lab1/datasets/data_dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26620" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Country</t>
   </si>
@@ -137,17 +125,98 @@
     <t>Contains respondents' answers to survey questions.</t>
   </si>
   <si>
-    <t>Contains information about Ebola Treatment Centers.</t>
-  </si>
-  <si>
     <t>Contains information about organizations that partner with Ebola Treatment Centers.</t>
+  </si>
+  <si>
+    <t>Describes the country's health expenditures, as a percentage of their GDP</t>
+  </si>
+  <si>
+    <t>GDP per capita in US dollars</t>
+  </si>
+  <si>
+    <t>Percent of the country's population that is urban</t>
+  </si>
+  <si>
+    <t>Identification code for the Ebola Treatment Center</t>
+  </si>
+  <si>
+    <t>Contains information about Ebola Treatment Centers</t>
+  </si>
+  <si>
+    <t>Country where the ETC is located</t>
+  </si>
+  <si>
+    <t>Organizations who partner with the ETC</t>
+  </si>
+  <si>
+    <t>ETC's name</t>
+  </si>
+  <si>
+    <t>ETC's latitude coordinate</t>
+  </si>
+  <si>
+    <t>ETC's longitude coordinate</t>
+  </si>
+  <si>
+    <t>Indicates whether or not the ETC has a testing lab</t>
+  </si>
+  <si>
+    <t>Indicates whether the ETC is open, under construction, closed, planned</t>
+  </si>
+  <si>
+    <t>The organization's acronym</t>
+  </si>
+  <si>
+    <t>Where the organization is located</t>
+  </si>
+  <si>
+    <t>Organization's name</t>
+  </si>
+  <si>
+    <t>Type: UN Agency, International NGO, Red Cross Movement, Government, Donors, Laboratory, International Organization, Private, National NGO, Other</t>
+  </si>
+  <si>
+    <t>Ebola Care Facility's identification code</t>
+  </si>
+  <si>
+    <t>Respondent's identification code</t>
+  </si>
+  <si>
+    <t>Where the respondent is from</t>
+  </si>
+  <si>
+    <t>Respondent's gender</t>
+  </si>
+  <si>
+    <t>Respondent's age</t>
+  </si>
+  <si>
+    <t>Highest level of education completed: 0 (none), 1 (some ABC), 2 (completed ABC), 3 (some junior high), 4 (completed junior high), 5 (some high school), 6 (completed high school), 7 (some university), 8 (completed university), 88 (other)</t>
+  </si>
+  <si>
+    <t>Whether or not the respondent agrees that their community is well-organized in the fight to keep Ebola out of their community: 0 (disagree), 1 (agree), 97 (don't know), 98 (refuse to answer)</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,16 +232,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +246,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,79 +262,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -287,12 +282,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -300,29 +291,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,319 +597,706 @@
     <col min="4" max="4" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="C29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="11"/>
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
